--- a/sending.xlsx
+++ b/sending.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Место установки</t>
   </si>
   <si>
-    <t xml:space="preserve">Тэг</t>
+    <t xml:space="preserve">Тэг </t>
   </si>
   <si>
     <t xml:space="preserve">Наименование</t>
@@ -306,7 +306,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/sending.xlsx
+++ b/sending.xlsx
@@ -303,7 +303,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,7 +317,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="14.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="15" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="5.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="16" style="1" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>

--- a/sending.xlsx
+++ b/sending.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="l1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="l1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">l1!$A$1:$N$5421</definedName>
@@ -221,14 +221,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -250,7 +254,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -275,15 +279,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -295,80 +299,187 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="5.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="16" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="17" style="1" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7"/>
+      <c r="C2" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N5421">
